--- a/Calcium_imaging_electrophysiology.xlsx
+++ b/Calcium_imaging_electrophysiology.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonarddupont/Desktop/Internship M1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonarddupont/Desktop/Internship M1/Data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="24720" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Turtle</t>
   </si>
@@ -53,19 +53,28 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Reccurent inhibition (apparently)</t>
-  </si>
-  <si>
     <t>Might be an interneuron</t>
   </si>
   <si>
-    <t>I wrote 'I think we might have followers'</t>
-  </si>
-  <si>
     <t>AK19</t>
   </si>
   <si>
     <t>The cell went crazy, bad seal probably</t>
+  </si>
+  <si>
+    <t>Lot of bleaching, spontaneous act., no followers</t>
+  </si>
+  <si>
+    <t>CLEARLY NOTHING</t>
+  </si>
+  <si>
+    <t>Reccurent inhibition, ephys looks amazing</t>
+  </si>
+  <si>
+    <t>Very noisy calcium signal, nothing to be seen (not even patched cell!)</t>
+  </si>
+  <si>
+    <t>Can see the patched cell but nothing else, will have to align traces anyway</t>
   </si>
 </sst>
 </file>
@@ -73,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -106,10 +115,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,48 +396,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>43199</v>
       </c>
       <c r="C2">
@@ -441,8 +450,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
         <v>43200</v>
       </c>
       <c r="C3">
@@ -455,11 +464,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>43207</v>
       </c>
       <c r="C4">
@@ -472,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>3003</v>
       </c>
@@ -483,11 +492,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>43222</v>
       </c>
       <c r="C6">
@@ -500,7 +509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>503</v>
       </c>
@@ -508,13 +517,16 @@
         <v>819</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>505</v>
       </c>
@@ -525,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>507</v>
       </c>
@@ -536,84 +548,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>508</v>
+      </c>
+      <c r="F10">
+        <v>834</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
         <v>43223</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>901</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>903</v>
+      </c>
+      <c r="F12">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C11">
-        <v>903</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C12">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C13">
         <v>905</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>15</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C13">
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C14">
         <v>907</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>16</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C14">
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C15">
         <v>909</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>18</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C15">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C16">
         <v>911</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>19</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C16">
-        <v>913</v>
-      </c>
-      <c r="F16">
-        <v>20</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -621,80 +636,80 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C17">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F17">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C18">
+        <v>915</v>
+      </c>
+      <c r="F18">
+        <v>24</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C19">
         <v>917</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>25</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
-        <v>43224</v>
-      </c>
-      <c r="C19">
-        <v>501</v>
-      </c>
-      <c r="F19">
-        <v>501</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>43224</v>
+      </c>
       <c r="C20">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F20">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="C21">
+        <v>503</v>
+      </c>
+      <c r="F21">
+        <v>502</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
         <v>43228</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>101</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>104</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -702,49 +717,49 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F26">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -752,10 +767,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -763,35 +778,35 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>125</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C29">
         <v>15</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>129</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="2">
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
         <v>43229</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>201</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>704</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C30">
-        <v>203</v>
-      </c>
-      <c r="F30">
-        <v>705</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -799,10 +814,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C31">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F31">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -810,10 +825,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C32">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F32">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -821,12 +836,23 @@
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33">
+        <v>207</v>
+      </c>
+      <c r="F33">
+        <v>710</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34">
         <v>209</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>711</v>
       </c>
-      <c r="I33" t="b">
+      <c r="I34" t="b">
         <v>0</v>
       </c>
     </row>
